--- a/label/config/GENERAL_LABELS_WEB_V1_SRSxx.xlsx
+++ b/label/config/GENERAL_LABELS_WEB_V1_SRSxx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willy/workspace/dev/le-beau-cheveu/dev/label/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willy/workspace/dev/le-beau-cheveu/dev/front-end/label/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LABELS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LABELS!$A$1:$D$270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LABELS!$A$1:$D$275</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -2599,12 +2599,6 @@
     <t>L_W_SEARCH_LOCATION_PLACEHOLDER</t>
   </si>
   <si>
-    <t>Renseigner votre ville ou département</t>
-  </si>
-  <si>
-    <t>Enter your city or department</t>
-  </si>
-  <si>
     <t>L_W_SEARCH_DATE_TOAST</t>
   </si>
   <si>
@@ -2640,6 +2634,12 @@
   </si>
   <si>
     <t>L_W_SEARCH_HAIRCUT_TYPE_TOAST</t>
+  </si>
+  <si>
+    <t>Enter your city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renseigner votre ville </t>
   </si>
 </sst>
 </file>
@@ -2864,17 +2864,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="289">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="288">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6039,8 +6029,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="A250" sqref="A250"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6065,7 +6055,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6079,7 +6069,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6093,7 +6083,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -6107,7 +6097,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6121,7 +6111,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -6135,7 +6125,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6149,7 +6139,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -6163,7 +6153,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -6177,7 +6167,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -6191,7 +6181,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -6205,7 +6195,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -6219,7 +6209,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -6233,7 +6223,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -6247,7 +6237,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -6261,7 +6251,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -6275,7 +6265,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -6289,7 +6279,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -6317,7 +6307,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -6331,7 +6321,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -6359,7 +6349,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -6373,7 +6363,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -6387,7 +6377,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -6401,7 +6391,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -6415,7 +6405,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -6429,7 +6419,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -6443,7 +6433,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -6457,7 +6447,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -6485,7 +6475,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -6499,7 +6489,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -6513,7 +6503,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -6527,7 +6517,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -6541,7 +6531,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -6555,7 +6545,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -6569,7 +6559,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -6583,7 +6573,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -6597,7 +6587,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -6611,7 +6601,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -6625,7 +6615,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -6639,7 +6629,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -6653,7 +6643,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -6667,7 +6657,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -6681,7 +6671,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -6695,7 +6685,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -6709,7 +6699,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -6723,7 +6713,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -6737,7 +6727,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -6751,7 +6741,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -6765,7 +6755,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -6779,7 +6769,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -6793,7 +6783,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -6807,7 +6797,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -6821,7 +6811,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -6835,7 +6825,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -6849,7 +6839,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -6863,7 +6853,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -6877,7 +6867,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -6891,7 +6881,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -6905,7 +6895,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -6919,7 +6909,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -6933,7 +6923,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -6947,7 +6937,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -6961,7 +6951,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -6975,7 +6965,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -7003,7 +6993,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -7017,7 +7007,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -7031,7 +7021,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -7045,7 +7035,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -7059,7 +7049,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -7073,7 +7063,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
@@ -7087,7 +7077,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
@@ -7101,7 +7091,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -7115,7 +7105,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="384" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="384" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -7129,7 +7119,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="409" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="409" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -7143,7 +7133,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
@@ -7157,7 +7147,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
@@ -7171,7 +7161,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
@@ -7185,7 +7175,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
@@ -7199,7 +7189,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -7213,7 +7203,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
@@ -7227,7 +7217,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
@@ -7241,7 +7231,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
@@ -7255,7 +7245,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
@@ -7269,7 +7259,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
@@ -7283,7 +7273,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
@@ -7297,7 +7287,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
@@ -7311,7 +7301,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
@@ -7325,7 +7315,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
@@ -7339,7 +7329,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
@@ -7353,7 +7343,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -7367,7 +7357,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
@@ -7381,7 +7371,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
@@ -7395,7 +7385,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -7409,7 +7399,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -7442,7 +7432,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
@@ -7453,7 +7443,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
@@ -7464,7 +7454,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
@@ -7475,7 +7465,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
@@ -7486,7 +7476,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
@@ -7497,7 +7487,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
@@ -7508,7 +7498,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
@@ -7519,7 +7509,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
@@ -7530,7 +7520,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
@@ -7541,7 +7531,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
@@ -7552,7 +7542,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -7563,7 +7553,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
@@ -7574,7 +7564,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
@@ -7585,7 +7575,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
@@ -7596,7 +7586,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
@@ -7607,7 +7597,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
@@ -7618,7 +7608,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
@@ -7629,7 +7619,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
@@ -7640,7 +7630,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
@@ -7651,7 +7641,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
@@ -7662,7 +7652,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
@@ -7673,7 +7663,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
@@ -7684,7 +7674,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
@@ -7695,7 +7685,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
@@ -7706,7 +7696,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
@@ -7717,7 +7707,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>124</v>
       </c>
@@ -7728,7 +7718,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>125</v>
       </c>
@@ -7739,7 +7729,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>126</v>
       </c>
@@ -7750,7 +7740,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>127</v>
       </c>
@@ -7761,7 +7751,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>128</v>
       </c>
@@ -7772,7 +7762,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>129</v>
       </c>
@@ -7783,7 +7773,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
@@ -7805,7 +7795,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>132</v>
       </c>
@@ -7827,7 +7817,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
@@ -7838,7 +7828,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>135</v>
       </c>
@@ -7849,7 +7839,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>136</v>
       </c>
@@ -7882,7 +7872,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>139</v>
       </c>
@@ -7893,7 +7883,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>140</v>
       </c>
@@ -7904,7 +7894,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>141</v>
       </c>
@@ -7915,7 +7905,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>142</v>
       </c>
@@ -7959,7 +7949,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>146</v>
       </c>
@@ -7970,7 +7960,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>147</v>
       </c>
@@ -7981,7 +7971,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -7992,7 +7982,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -8003,7 +7993,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>150</v>
       </c>
@@ -8014,7 +8004,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>151</v>
       </c>
@@ -8036,7 +8026,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>153</v>
       </c>
@@ -8047,7 +8037,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>154</v>
       </c>
@@ -8058,7 +8048,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>155</v>
       </c>
@@ -8069,7 +8059,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>156</v>
       </c>
@@ -8080,7 +8070,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>157</v>
       </c>
@@ -8091,7 +8081,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>158</v>
       </c>
@@ -8102,7 +8092,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>159</v>
       </c>
@@ -8113,7 +8103,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>160</v>
       </c>
@@ -8146,7 +8136,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>163</v>
       </c>
@@ -8157,7 +8147,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>164</v>
       </c>
@@ -8168,7 +8158,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>165</v>
       </c>
@@ -8179,7 +8169,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>166</v>
       </c>
@@ -8190,7 +8180,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>167</v>
       </c>
@@ -8201,7 +8191,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>168</v>
       </c>
@@ -8212,7 +8202,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>169</v>
       </c>
@@ -8223,7 +8213,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>170</v>
       </c>
@@ -8234,7 +8224,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
@@ -8245,7 +8235,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>172</v>
       </c>
@@ -8278,7 +8268,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>175</v>
       </c>
@@ -8289,7 +8279,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>176</v>
       </c>
@@ -8300,7 +8290,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>177</v>
       </c>
@@ -8311,7 +8301,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>178</v>
       </c>
@@ -8322,7 +8312,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>179</v>
       </c>
@@ -8333,7 +8323,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>180</v>
       </c>
@@ -8344,7 +8334,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
@@ -8355,7 +8345,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>182</v>
       </c>
@@ -8366,7 +8356,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>183</v>
       </c>
@@ -8377,7 +8367,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
@@ -8388,7 +8378,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>185</v>
       </c>
@@ -8399,7 +8389,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>186</v>
       </c>
@@ -8410,7 +8400,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>187</v>
       </c>
@@ -8421,7 +8411,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>188</v>
       </c>
@@ -8432,7 +8422,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>189</v>
       </c>
@@ -8443,7 +8433,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>190</v>
       </c>
@@ -8454,7 +8444,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>191</v>
       </c>
@@ -8465,7 +8455,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>192</v>
       </c>
@@ -8476,7 +8466,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>193</v>
       </c>
@@ -8487,7 +8477,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>194</v>
       </c>
@@ -8498,7 +8488,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>195</v>
       </c>
@@ -8520,7 +8510,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
@@ -8531,7 +8521,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>198</v>
       </c>
@@ -8542,7 +8532,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>199</v>
       </c>
@@ -8553,7 +8543,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>200</v>
       </c>
@@ -8575,7 +8565,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>202</v>
       </c>
@@ -8586,7 +8576,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>203</v>
       </c>
@@ -8597,7 +8587,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>204</v>
       </c>
@@ -8608,7 +8598,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>205</v>
       </c>
@@ -8619,7 +8609,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>206</v>
       </c>
@@ -8630,7 +8620,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>207</v>
       </c>
@@ -8641,7 +8631,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>208</v>
       </c>
@@ -8652,7 +8642,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>209</v>
       </c>
@@ -8663,7 +8653,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>210</v>
       </c>
@@ -8674,7 +8664,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>211</v>
       </c>
@@ -8685,7 +8675,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>212</v>
       </c>
@@ -8696,7 +8686,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>213</v>
       </c>
@@ -8707,7 +8697,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>214</v>
       </c>
@@ -8762,7 +8752,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>219</v>
       </c>
@@ -8773,7 +8763,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>220</v>
       </c>
@@ -8784,7 +8774,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>221</v>
       </c>
@@ -8795,7 +8785,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>222</v>
       </c>
@@ -8806,7 +8796,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>223</v>
       </c>
@@ -8817,7 +8807,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>224</v>
       </c>
@@ -8828,7 +8818,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>225</v>
       </c>
@@ -8839,7 +8829,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>226</v>
       </c>
@@ -8850,7 +8840,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>227</v>
       </c>
@@ -8861,7 +8851,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>228</v>
       </c>
@@ -8872,7 +8862,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>229</v>
       </c>
@@ -8883,7 +8873,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
@@ -8894,7 +8884,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>231</v>
       </c>
@@ -8905,7 +8895,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>232</v>
       </c>
@@ -8916,7 +8906,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>233</v>
       </c>
@@ -8927,7 +8917,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>234</v>
       </c>
@@ -8938,7 +8928,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>235</v>
       </c>
@@ -8949,7 +8939,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>236</v>
       </c>
@@ -8971,7 +8961,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>238</v>
       </c>
@@ -8982,7 +8972,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>239</v>
       </c>
@@ -8993,7 +8983,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>240</v>
       </c>
@@ -9015,7 +9005,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>242</v>
       </c>
@@ -9026,7 +9016,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>243</v>
       </c>
@@ -9037,7 +9027,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>244</v>
       </c>
@@ -9048,7 +9038,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>245</v>
       </c>
@@ -9059,7 +9049,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>246</v>
       </c>
@@ -9070,7 +9060,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>247</v>
       </c>
@@ -9081,7 +9071,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>248</v>
       </c>
@@ -9092,7 +9082,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>249</v>
       </c>
@@ -9103,7 +9093,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>250</v>
       </c>
@@ -9114,7 +9104,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>251</v>
       </c>
@@ -9125,7 +9115,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>252</v>
       </c>
@@ -9136,7 +9126,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>253</v>
       </c>
@@ -9147,7 +9137,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>254</v>
       </c>
@@ -9158,7 +9148,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>255</v>
       </c>
@@ -9169,7 +9159,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>256</v>
       </c>
@@ -9180,7 +9170,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>257</v>
       </c>
@@ -9191,7 +9181,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>258</v>
       </c>
@@ -9202,7 +9192,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>259</v>
       </c>
@@ -9213,7 +9203,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>260</v>
       </c>
@@ -9224,7 +9214,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>261</v>
       </c>
@@ -9235,7 +9225,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>837</v>
       </c>
@@ -9246,7 +9236,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>840</v>
       </c>
@@ -9257,7 +9247,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>842</v>
       </c>
@@ -9268,7 +9258,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>845</v>
       </c>
@@ -9279,7 +9269,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>847</v>
       </c>
@@ -9290,7 +9280,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>850</v>
       </c>
@@ -9306,1226 +9296,984 @@
         <v>853</v>
       </c>
       <c r="B270" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="C270" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="B271" s="13" t="s">
         <v>855</v>
       </c>
-      <c r="C270" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="4" t="s">
+      <c r="C271" s="14" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B272" t="s">
+        <v>858</v>
+      </c>
+      <c r="C272" s="14" t="s">
         <v>856</v>
       </c>
-      <c r="B271" s="13" t="s">
-        <v>857</v>
-      </c>
-      <c r="C271" s="14" t="s">
+    </row>
+    <row r="273" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="4" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="B272" t="s">
+      <c r="B273" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="C272" s="14" t="s">
+      <c r="C274" s="15" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="16" t="s">
+        <v>864</v>
+      </c>
+      <c r="B275" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A273" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="B273" s="14" t="s">
-        <v>863</v>
-      </c>
-      <c r="C273" s="14" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A274" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="C274" s="15" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="16" t="s">
-        <v>866</v>
-      </c>
-      <c r="B275" t="s">
-        <v>860</v>
-      </c>
       <c r="C275" s="14" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D270">
+  <autoFilter ref="A1:D275">
     <filterColumn colId="0">
       <filters>
-        <filter val="L_W_ACCOUNT_STATUS"/>
-        <filter val="L_W_ACCOUNT_STATUS_ACTIVE"/>
-        <filter val="L_W_ACCOUNT_STATUS_DROP_DOWN_LIST_SELECT"/>
-        <filter val="L_W_ACCOUNT_STATUS_INACTIVE"/>
-        <filter val="L_W_ADMIN_MESSAGE_AUTHOR"/>
-        <filter val="L_W_ADMIN_MESSAGE_CONTENT"/>
-        <filter val="L_W_ADMIN_MESSAGE_CONTENT_VOID"/>
-        <filter val="L_W_ADMIN_MESSAGE_DATE"/>
-        <filter val="L_W_ADMIN_MESSAGE_INTERNAL_ID"/>
-        <filter val="L_W_ADMIN_MESSAGE_INTERNAL_ID_VOID"/>
-        <filter val="L_W_ADMIN_MESSAGE_MESSAGES"/>
-        <filter val="L_W_ADMIN_MESSAGE_NUMBER_OF_RECIPIENTS"/>
-        <filter val="L_W_ADMIN_MESSAGE_OBJECT"/>
-        <filter val="L_W_ADMIN_MESSAGE_OBJECT_VOID"/>
-        <filter val="L_W_ADMIN_MESSAGE_RECIPIENTS"/>
-        <filter val="L_W_ADMIN_MESSAGE_RECIPIENTS_FILE_MISSING"/>
-        <filter val="L_W_ADMIN_MESSAGE_RECIPIENTS_FILE_SIZE"/>
-        <filter val="L_W_ADMIN_MESSAGE_STATUS"/>
-        <filter val="L_W_ADMIN_MESSAGE_STATUS_ACTIVE"/>
-        <filter val="L_W_ADMIN_MESSAGE_STATUS_INACTIVE"/>
-        <filter val="L_W_ADMIN_MESSAGE_SUPPORTED_FORMAT"/>
-        <filter val="L_W_ADMIN_MESSAGE_TITLE"/>
-        <filter val="L_W_ADMIN_MESSAGE_TITLE_VOID"/>
-        <filter val="L_W_ADMIN_MESSAGE_UNSUPPORTED_FORMATS"/>
-        <filter val="L_W_AGE"/>
-        <filter val="L_W_AUTHOR"/>
-        <filter val="L_W_BACK_OFFICE_USER_NEW_PASSWORD_EXPLANATION"/>
-        <filter val="L_W_BIRTH_DATE"/>
-        <filter val="L_W_BMI"/>
-        <filter val="L_W_BOX_CONFIRMATION_MESSAGE_SENDING"/>
-        <filter val="L_W_BOX_CONFIRMATION_PASSWORD_SENDING"/>
-        <filter val="L_W_BOX_CONFIRMATION_UNLOCK_ACCOUNT"/>
-        <filter val="L_W_BROWSE"/>
-        <filter val="L_W_BUTTON_ACCEPT"/>
-        <filter val="L_W_BUTTON_ANALYSIS"/>
-        <filter val="L_W_BUTTON_CHANGE_PASSWORD"/>
-        <filter val="L_W_BUTTON_CLOSE"/>
-        <filter val="L_W_BUTTON_CONFIRM"/>
-        <filter val="L_W_BUTTON_CONTINUE"/>
-        <filter val="L_W_BUTTON_DECLINE"/>
-        <filter val="L_W_BUTTON_DELETE"/>
-        <filter val="L_W_BUTTON_EXTEND"/>
-        <filter val="L_W_BUTTON_LOG_IN"/>
-        <filter val="L_W_BUTTON_NEW_MESSAGE"/>
-        <filter val="L_W_BUTTON_NEW_PATIENT"/>
-        <filter val="L_W_BUTTON_RESET_PATIENT_PASSWORD"/>
-        <filter val="L_W_BUTTON_SEND"/>
-        <filter val="L_W_BUTTON_SUBMIT"/>
-        <filter val="L_W_BUTTON_UNLOCK"/>
-        <filter val="L_W_CHANGE_STARTING_DOSE"/>
-        <filter val="L_W_CONDITIONS_OF_USE_HYPERLINK"/>
-        <filter val="L_W_CONFIRMATION_TEXT_LAYOUT"/>
-        <filter val="L_W_DATE"/>
-        <filter val="L_W_DATE_PLACEHOLDER"/>
-        <filter val="L_W_EMAIL"/>
-        <filter val="L_W_ERROR_INDICATOR"/>
-        <filter val="L_W_FBG_IN_TARGET"/>
-        <filter val="L_W_FIRST_NAME"/>
-        <filter val="L_W_GENDER"/>
-        <filter val="L_W_GENDER_FEMALE"/>
-        <filter val="L_W_GENDER_MALE"/>
-        <filter val="L_W_GENDER_NOT_SPECIFIED"/>
-        <filter val="L_W_HOME_PAGE_TITLE"/>
-        <filter val="L_W_IVR"/>
-        <filter val="L_W_LANGUAGE_DROP_DOWN_LIST_SELECT"/>
-        <filter val="L_W_LAST_30_DAYS"/>
-        <filter val="L_W_LAST_HYPOGLYCEMIA"/>
-        <filter val="L_W_LAST_LOGBOOK_ENTRY"/>
-        <filter val="L_W_LAST_NAME"/>
-        <filter val="L_W_LAST_PASSWORD_CHANGE"/>
-        <filter val="L_W_LICENSE_ACTIVE_STATUS"/>
-        <filter val="L_W_LICENSE_EXPIRED_STATUS"/>
-        <filter val="L_W_LIST_OF_ALLOWED_MOBILE_CONFIGURATIONS"/>
-        <filter val="L_W_LIST_USERS_VOID"/>
-        <filter val="L_W_LOGBOOK_COMMENT"/>
-        <filter val="L_W_LOGBOOK_PERIOD_COMMENT"/>
-        <filter val="L_W_LOGIN"/>
-        <filter val="L_W_LOGIN_PLACEHOLDER"/>
-        <filter val="L_W_MAIN_MENU_BLOG"/>
-        <filter val="L_W_MAIN_MENU_CATALOG"/>
-        <filter val="L_W_MAIN_MENU_LOGIN"/>
-        <filter val="L_W_MAIN_MENU_SHOP"/>
-        <filter val="L_W_MESSAGE_ACCOUNT_STATUS_CANT_BE_DISABLED"/>
-        <filter val="L_W_MESSAGE_ACCOUNT_STATUS_VOID"/>
-        <filter val="L_W_MESSAGE_ACCOUNT_TIME_ZONE_VOID"/>
-        <filter val="L_W_MESSAGE_BIRTH_DATE_FUTURE"/>
-        <filter val="L_W_MESSAGE_BIRTH_DATE_INVALID"/>
-        <filter val="L_W_MESSAGE_BIRTH_DATE_VOID"/>
-        <filter val="L_W_MESSAGE_CALL_CENTER_VOID"/>
-        <filter val="L_W_MESSAGE_CALL_CENTER_VOID_FOR_ACTIVE_OPERATOR"/>
-        <filter val="L_W_MESSAGE_COMMENT_DATE_IN_THE_FUTURE"/>
-        <filter val="L_W_MESSAGE_COMMENT_DATE_VOID"/>
-        <filter val="L_W_MESSAGE_COMMENT_PERIOD_VOID"/>
-        <filter val="L_W_MESSAGE_CONFIRMATION_PASSWORD_VOID"/>
-        <filter val="L_W_MESSAGE_EMAIL_DUPLICATE"/>
-        <filter val="L_W_MESSAGE_EMAIL_INVALID"/>
-        <filter val="L_W_MESSAGE_EMAIL_VOID"/>
-        <filter val="L_W_MESSAGE_FIRST_NAME_INVALID"/>
-        <filter val="L_W_MESSAGE_FIRST_NAME_VOID"/>
-        <filter val="L_W_MESSAGE_FOR_CHANGING_TEMPORARY_PASSWORD"/>
-        <filter val="L_W_MESSAGE_GENDER_VOID"/>
-        <filter val="L_W_MESSAGE_LANGUAGE_NOT_AVAILABLE_IN_REGION"/>
-        <filter val="L_W_MESSAGE_LANGUAGE_VOID"/>
-        <filter val="L_W_MESSAGE_LAST_NAME_INVALID"/>
-        <filter val="L_W_MESSAGE_LAST_NAME_VOID"/>
-        <filter val="L_W_MESSAGE_LOGBOOK_COMMENT_VOID"/>
-        <filter val="L_W_MESSAGE_NEW_PASSWORD_CONFIRMATION_VOID"/>
-        <filter val="L_W_MESSAGE_NEW_PASSWORD_VOID"/>
-        <filter val="L_W_MESSAGE_OLD_PASSWORD_VOID"/>
-        <filter val="L_W_MESSAGE_PATIENT_ACCEPTANCE_CRITERIA_NOT_CONFIRMED"/>
-        <filter val="L_W_MESSAGE_PATIENT_CONSENT_FORM_NOT_ACCEPTED"/>
-        <filter val="L_W_MESSAGE_PATIENT_TRAINING_SATE_VOID"/>
-        <filter val="L_W_MESSAGE_REGION_VOID"/>
-        <filter val="L_W_MESSAGE_RESPONSIBILITY_VOID"/>
-        <filter val="L_W_MESSAGE_STARTING_DOSE_&gt;_REFERENCE_DOSE"/>
-        <filter val="L_W_MESSAGE_TERMS_AND_CONDITIONS_ACCEPTATION"/>
-        <filter val="L_W_MESSAGE_TRAINING_STATE_VOID"/>
-        <filter val="L_W_MESSAGE_YOURS_CREDENTIALS_ARE_INVALID"/>
-        <filter val="L_W_MOBILE"/>
-        <filter val="L_W_NEW_PASSWORD"/>
-        <filter val="L_W_NEW_PASSWORD_CONFIRMATION"/>
-        <filter val="L_W_NEW_PASSWORD_CONFIRMATION_NOT_MATCH"/>
-        <filter val="L_W_NEW_PASSWORD_DEFINITION_REFUSED"/>
-        <filter val="L_W_NEW_PASSWORD_SENDING"/>
-        <filter val="L_W_NEWS_LETTER"/>
-        <filter val="L_W_NO_DATA_AVALAIBLE"/>
-        <filter val="L_W_NOT_ENOUGH_DATA"/>
-        <filter val="L_W_NOT_SPECIFIED"/>
-        <filter val="L_W_OLD_PASSWORD"/>
-        <filter val="L_W_OPERATOR_CREATION_STEP_END"/>
-        <filter val="L_W_OPERATOR_EMAIL_CREATION"/>
-        <filter val="L_W_OPERATOR_EMAIL_PASSWORD_SENDING"/>
-        <filter val="L_W_OPERATOR_NEW_PASSWORD_EXPLANATION"/>
-        <filter val="L_W_OPERATORS"/>
-        <filter val="L_W_PAGE_TITLE_ADMIN_MESSAGE_EDITION"/>
-        <filter val="L_W_PAGE_TITLE_ADMIN_MESSAGE_LIST"/>
-        <filter val="L_W_PAGE_TITLE_ADMIN_MESSAGE_VIEW"/>
-        <filter val="L_W_PAGE_TITLE_EVOLUTION_CHARTS"/>
-        <filter val="L_W_PAGE_TITLE_HCPS_LIST"/>
-        <filter val="L_W_PAGE_TITLE_LICENSES_LIST"/>
-        <filter val="L_W_PAGE_TITLE_OPERATORS_LIST"/>
-        <filter val="L_W_PAGE_TITLE_PATIENTS_LIST"/>
-        <filter val="L_W_PAGE_TITLE_TERMS_AND_CONDITIONS_OF_USE"/>
-        <filter val="L_W_PAGE_TITLE_VIEW_PATIENT_LICENSE"/>
-        <filter val="L_W_PASSWORD_CHANGE_CONFIRMATION"/>
-        <filter val="L_W_PASSWORD_COMPLEXITY_RULES"/>
-        <filter val="L_W_PASSWORD_FORGOTTEN"/>
-        <filter val="L_W_PATIENT_ACCOUNT_BLOCKED"/>
-        <filter val="L_W_PATIENT_ADHERENCE"/>
-        <filter val="L_W_PATIENT_AVERAGE_FBG"/>
-        <filter val="L_W_PATIENT_AVERAGE_FBG_IN_THE_LAST_8DAYS"/>
-        <filter val="L_W_PATIENT_CREATION_ACCEPTANCE_CRITERIA"/>
-        <filter val="L_W_PATIENT_CREATION_CONFIRMATION_CANCEL"/>
-        <filter val="L_W_PATIENT_CREATION_INTRODUCTION"/>
-        <filter val="L_W_PATIENT_CREATION_STATE"/>
-        <filter val="L_W_PATIENT_EMAIL_CREATION"/>
-        <filter val="L_W_PATIENT_EMAIL_PASSWORD_SENDING"/>
-        <filter val="L_W_PATIENT_FBG_RECORDED"/>
-        <filter val="L_W_PATIENT_INJECTION_RECORDED"/>
-        <filter val="L_W_PATIENT_LICENSE_EXPIRATION_DATE"/>
-        <filter val="L_W_PATIENT_LICENSE_KEY"/>
-        <filter val="L_W_PATIENT_LICENSE_START_DATE"/>
-        <filter val="L_W_PATIENT_LICENSE_STATUS"/>
-        <filter val="L_W_PATIENT_NAME"/>
-        <filter val="L_W_Patient_NEW_PASSWORD_EXPLANATION"/>
-        <filter val="L_W_PATIENT_STATUS"/>
-        <filter val="L_W_PATIENT_STATUS_ACCOUNT_CREATION"/>
-        <filter val="L_W_PATIENT_STATUS_ACTIVE_TITRATION"/>
-        <filter val="L_W_PATIENT_STATUS_ALL"/>
-        <filter val="L_W_PATIENT_STATUS_DECREASE_ONLY"/>
-        <filter val="L_W_PATIENT_STATUS_DISABLED"/>
-        <filter val="L_W_PATIENT_STATUS_INACTIVE"/>
-        <filter val="L_W_PATIENT_STATUS_TITRATION_DISABLED"/>
-        <filter val="L_W_PATIENT_STATUS_TRAINING"/>
-        <filter val="L_W_PATIENTS"/>
-        <filter val="L_W_PHONE_NUMBER"/>
-        <filter val="L_W_POPUP_TITLE_CONFIRMATION_LICENSE_EXTENSION"/>
-        <filter val="L_W_REDWING_USAGE"/>
-        <filter val="L_W_RESPONSIBILITY"/>
-        <filter val="L_W_RESPONSIBILITY_DROP_DOWN_LIST_SELECT"/>
         <filter val="L_W_SEARCH_LOCATION_PLACEHOLDER"/>
-        <filter val="L_W_SEARCH_PLACEHOLDER"/>
-        <filter val="L_W_SECTION_CHANGE_PASSWORD_CONTENT"/>
-        <filter val="L_W_SECTION_SEND_NEW_PASSWORD_CONTENT"/>
-        <filter val="L_W_SECTION_UNLOCK_ACCOUNT_LOCKED"/>
-        <filter val="L_W_SECTION_UNLOCK_ACCOUNT_NOT_LOCKED"/>
-        <filter val="L_W_STATUS_FILTER"/>
-        <filter val="L_W_SYMBOL_MANDATORY"/>
-        <filter val="L_W_SYNCHRONIZATION"/>
-        <filter val="L_W_TARGET"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_AGREEMENT_LAYOUT"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_EXPLANATIONS"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_CULTURES"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_CULTURES_VOID"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_FILE"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_FILE_MISSING"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_INVALID_FILE_EXTENTION"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_INVALID_FILE_SIZE"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_ORGANIZATIONS"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_ORGANIZATIONS_VOID"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_SUPPORTED_FORMAT"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_THIRD_PARTY_APPLICATIONS"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_THIRD_PARTY_APPLICATIONS_VOID"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_TITLE"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_TITLE_VOID"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_USER_ROLES"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_OF_USE_USER_ROLES_VOID"/>
-        <filter val="L_W_TERMS_AND_CONDITIONS_REQUIRED"/>
-        <filter val="L_W_TERMS_OF_USE"/>
-        <filter val="L_W_TIME_ZONE"/>
-        <filter val="L_W_TIME_ZONE_DROP_DOWN_LIST_SELECT"/>
-        <filter val="L_W_TITLE_EDIT_PROFILE"/>
-        <filter val="L_W_TITLE_PAGE_ADD_COMMENT"/>
-        <filter val="L_W_TITLE_PAGE_USER_CONNECTED_PASSWORD_MODIFICATION"/>
-        <filter val="L_W_TITLE_PAGE_USER_CONNECTED_PROFILE"/>
-        <filter val="L_W_TITLE_PAGES_HCP_CREATION"/>
-        <filter val="L_W_TITLE_PAGES_OPERATOR_CREATION"/>
-        <filter val="L_W_TITLE_PAGES_PATIENT_CREATION"/>
-        <filter val="L_W_TITLE_SECTION_ACCOUNT_STATUS"/>
-        <filter val="L_W_TITLE_SECTION_CHANNEL"/>
-        <filter val="L_W_TITLE_SECTION_GOOGLE_AUTHENTICATOR"/>
-        <filter val="L_W_TITLE_SECTION_PASSWORD"/>
-        <filter val="L_W_TITLE_SECTION_PASSWORD_CHANGE"/>
-        <filter val="L_W_TITLE_SECTION_PATIENT_CLINICAL_DATA"/>
-        <filter val="L_W_TITLE_SECTION_PATIENT_CLINICAL_DATA_AND_GOALS"/>
-        <filter val="L_W_TITLE_SECTION_PATIENT_GOALS"/>
-        <filter val="L_W_TITLE_SECTION_PATIENT_LANGUAGE_AND_UNITS"/>
-        <filter val="L_W_TITLE_SECTION_PATIENT_MEDICAL_CLEARANCE"/>
-        <filter val="L_W_TITLE_SECTION_PATIENT_PERSONAL_INFORMATION"/>
-        <filter val="L_W_TITLE_SECTION_PROFILE"/>
-        <filter val="L_W_TITLE_SECTION_SEND_NEW_PASSWORD"/>
-        <filter val="L_W_TITLE_SECTION_TERMS_AND_CONDITIONS"/>
-        <filter val="L_W_TITLE_SECTION_UNLOCK_ACCOUNT"/>
-        <filter val="L_W_TRAINING_STATE"/>
-        <filter val="L_W_TRAINING_STATE_DROP_DOWN_LIST_SELECT"/>
-        <filter val="L_W_TRAINING_STATE_NOT_TRAINED"/>
-        <filter val="L_W_TRAINING_STATE_TRAINED"/>
-        <filter val="L_W_UNIT_PER_KG"/>
-        <filter val="L_W_USER_GUIDE"/>
-        <filter val="L_W_USER_ID"/>
-        <filter val="L_W_USERNAME_NOT_FOUND"/>
-        <filter val="L_W_USERNAME_VOID"/>
-        <filter val="L_W_WEB"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <dataConsolidate/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="288" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="287" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="286" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="285" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="284" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="284"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="283" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="282" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="282"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="281" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="281"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="280" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="280"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="279" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="278" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="277" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="276" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="275" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="274" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="273" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="272" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="271" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="270" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="269" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="268" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="267" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="266" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="265" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="264" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="263" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="262" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="261" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="260" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="259" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="258" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="257" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="256" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="255" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="254" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="253" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="252" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="251" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="250" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="249" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="248" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="247" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="246" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="245" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="244" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="243" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="242" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="241" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="240" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="239" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="238" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="237" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="236" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="duplicateValues" dxfId="235" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="duplicateValues" dxfId="234" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="233" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="232" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="231" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="230" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="duplicateValues" dxfId="229" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="228" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="227" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="226" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="225" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="224" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="223" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="222" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="221" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="220" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="219" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="218" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="217" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="duplicateValues" dxfId="216" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="duplicateValues" dxfId="215" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="214" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="213" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="duplicateValues" dxfId="212" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="duplicateValues" dxfId="211" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="210" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="209" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="208" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="duplicateValues" dxfId="207" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="206" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="205" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="duplicateValues" dxfId="204" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="203" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="202" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="201" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="200" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="199" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="198" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="197" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="196" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="195" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" dxfId="194" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="193" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="duplicateValues" dxfId="192" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="191" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="190" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="189" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="188" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="187" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="186" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="duplicateValues" dxfId="185" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="duplicateValues" dxfId="184" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="183" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="duplicateValues" dxfId="182" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="181" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="duplicateValues" dxfId="180" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111">
-    <cfRule type="duplicateValues" dxfId="179" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="duplicateValues" dxfId="178" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="177" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="176" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115">
-    <cfRule type="duplicateValues" dxfId="175" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" dxfId="174" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="duplicateValues" dxfId="173" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="172" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="171" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="170" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="169" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="168" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="167" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="166" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="165" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="164" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="163" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="162" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="161" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="160" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="159" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="158" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133">
-    <cfRule type="duplicateValues" dxfId="157" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134">
-    <cfRule type="duplicateValues" dxfId="156" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="duplicateValues" dxfId="155" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="duplicateValues" dxfId="154" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="153" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="152" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139">
-    <cfRule type="duplicateValues" dxfId="151" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140">
-    <cfRule type="duplicateValues" dxfId="150" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141">
-    <cfRule type="duplicateValues" dxfId="149" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142">
-    <cfRule type="duplicateValues" dxfId="148" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143">
-    <cfRule type="duplicateValues" dxfId="147" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="146" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="duplicateValues" dxfId="145" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146">
-    <cfRule type="duplicateValues" dxfId="144" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147">
-    <cfRule type="duplicateValues" dxfId="143" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148">
-    <cfRule type="duplicateValues" dxfId="142" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149">
-    <cfRule type="duplicateValues" dxfId="141" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="140" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="duplicateValues" dxfId="139" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="138" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="137" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154">
-    <cfRule type="duplicateValues" dxfId="136" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155">
-    <cfRule type="duplicateValues" dxfId="135" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156">
-    <cfRule type="duplicateValues" dxfId="134" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157">
-    <cfRule type="duplicateValues" dxfId="133" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158">
-    <cfRule type="duplicateValues" dxfId="132" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159">
-    <cfRule type="duplicateValues" dxfId="131" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160">
-    <cfRule type="duplicateValues" dxfId="130" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="129" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="128" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163">
-    <cfRule type="duplicateValues" dxfId="127" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="duplicateValues" dxfId="126" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A165">
-    <cfRule type="duplicateValues" dxfId="125" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166">
-    <cfRule type="duplicateValues" dxfId="124" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A167">
-    <cfRule type="duplicateValues" dxfId="123" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168">
-    <cfRule type="duplicateValues" dxfId="122" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169">
-    <cfRule type="duplicateValues" dxfId="121" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170">
-    <cfRule type="duplicateValues" dxfId="120" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171">
-    <cfRule type="duplicateValues" dxfId="119" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="118" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173">
-    <cfRule type="duplicateValues" dxfId="117" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174">
-    <cfRule type="duplicateValues" dxfId="116" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175">
-    <cfRule type="duplicateValues" dxfId="115" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A176">
-    <cfRule type="duplicateValues" dxfId="114" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177">
-    <cfRule type="duplicateValues" dxfId="113" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178">
-    <cfRule type="duplicateValues" dxfId="112" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="duplicateValues" dxfId="111" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180">
-    <cfRule type="duplicateValues" dxfId="110" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181">
-    <cfRule type="duplicateValues" dxfId="109" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="duplicateValues" dxfId="108" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A183">
-    <cfRule type="duplicateValues" dxfId="107" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184">
-    <cfRule type="duplicateValues" dxfId="106" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A185">
-    <cfRule type="duplicateValues" dxfId="105" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186">
-    <cfRule type="duplicateValues" dxfId="104" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A187">
-    <cfRule type="duplicateValues" dxfId="103" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A188">
-    <cfRule type="duplicateValues" dxfId="102" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="101" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="100" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A191">
-    <cfRule type="duplicateValues" dxfId="99" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192">
-    <cfRule type="duplicateValues" dxfId="98" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193">
-    <cfRule type="duplicateValues" dxfId="97" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="96" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195">
-    <cfRule type="duplicateValues" dxfId="95" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196">
-    <cfRule type="duplicateValues" dxfId="94" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="duplicateValues" dxfId="93" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198">
-    <cfRule type="duplicateValues" dxfId="92" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199">
-    <cfRule type="duplicateValues" dxfId="91" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A200">
-    <cfRule type="duplicateValues" dxfId="90" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201">
-    <cfRule type="duplicateValues" dxfId="89" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="duplicateValues" dxfId="88" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A203">
-    <cfRule type="duplicateValues" dxfId="87" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A204">
-    <cfRule type="duplicateValues" dxfId="86" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
-    <cfRule type="duplicateValues" dxfId="85" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A206">
-    <cfRule type="duplicateValues" dxfId="84" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207">
-    <cfRule type="duplicateValues" dxfId="83" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="duplicateValues" dxfId="82" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209">
-    <cfRule type="duplicateValues" dxfId="81" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A210">
-    <cfRule type="duplicateValues" dxfId="80" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A211">
-    <cfRule type="duplicateValues" dxfId="79" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A212">
-    <cfRule type="duplicateValues" dxfId="78" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="duplicateValues" dxfId="77" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A214">
-    <cfRule type="duplicateValues" dxfId="76" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A215">
-    <cfRule type="duplicateValues" dxfId="75" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A216">
-    <cfRule type="duplicateValues" dxfId="74" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A217">
-    <cfRule type="duplicateValues" dxfId="73" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A218">
-    <cfRule type="duplicateValues" dxfId="72" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="duplicateValues" dxfId="71" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A220">
-    <cfRule type="duplicateValues" dxfId="70" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">
-    <cfRule type="duplicateValues" dxfId="69" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A222">
-    <cfRule type="duplicateValues" dxfId="68" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="duplicateValues" dxfId="67" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="duplicateValues" dxfId="66" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="duplicateValues" dxfId="65" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226">
-    <cfRule type="duplicateValues" dxfId="64" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A227">
-    <cfRule type="duplicateValues" dxfId="63" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A228">
-    <cfRule type="duplicateValues" dxfId="62" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A229">
-    <cfRule type="duplicateValues" dxfId="61" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A230">
-    <cfRule type="duplicateValues" dxfId="60" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A231">
-    <cfRule type="duplicateValues" dxfId="59" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A232">
-    <cfRule type="duplicateValues" dxfId="58" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A233">
-    <cfRule type="duplicateValues" dxfId="57" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234">
-    <cfRule type="duplicateValues" dxfId="56" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A235">
-    <cfRule type="duplicateValues" dxfId="55" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A236">
-    <cfRule type="duplicateValues" dxfId="54" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="duplicateValues" dxfId="53" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A238">
-    <cfRule type="duplicateValues" dxfId="52" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239">
-    <cfRule type="duplicateValues" dxfId="51" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240">
-    <cfRule type="duplicateValues" dxfId="50" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="duplicateValues" dxfId="49" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242">
-    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A243">
-    <cfRule type="duplicateValues" dxfId="47" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A244">
-    <cfRule type="duplicateValues" dxfId="46" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A245">
-    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="duplicateValues" dxfId="44" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A247">
-    <cfRule type="duplicateValues" dxfId="43" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A248">
-    <cfRule type="duplicateValues" dxfId="42" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A249">
-    <cfRule type="duplicateValues" dxfId="41" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250">
-    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251">
-    <cfRule type="duplicateValues" dxfId="39" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A252">
-    <cfRule type="duplicateValues" dxfId="38" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253">
-    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A254">
-    <cfRule type="duplicateValues" dxfId="36" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255">
-    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A256">
-    <cfRule type="duplicateValues" dxfId="34" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A257">
-    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A258">
-    <cfRule type="duplicateValues" dxfId="32" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A259">
-    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A260">
-    <cfRule type="duplicateValues" dxfId="30" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261">
-    <cfRule type="duplicateValues" dxfId="29" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262">
-    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A263">
-    <cfRule type="duplicateValues" dxfId="27" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>_xlfn.ISFORMULA(B78)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>_xlfn.ISFORMULA(B79)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>_xlfn.ISFORMULA(B77)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>_xlfn.ISFORMULA(B99)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>_xlfn.ISFORMULA(B176)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>_xlfn.ISFORMULA(B181)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B202">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>_xlfn.ISFORMULA(B202)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B239">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>_xlfn.ISFORMULA(B239)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B243">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>_xlfn.ISFORMULA(B243)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B245">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>_xlfn.ISFORMULA(B245)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B252">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>_xlfn.ISFORMULA(B252)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B254">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>_xlfn.ISFORMULA(B254)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>_xlfn.ISFORMULA(C78)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>_xlfn.ISFORMULA(C79)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>_xlfn.ISFORMULA(C77)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>_xlfn.ISFORMULA(C99)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C176">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>_xlfn.ISFORMULA(C176)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C181">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>_xlfn.ISFORMULA(C181)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C202">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>_xlfn.ISFORMULA(C202)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C239">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>_xlfn.ISFORMULA(C239)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C243">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>_xlfn.ISFORMULA(C243)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>_xlfn.ISFORMULA(C245)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>_xlfn.ISFORMULA(C252)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C254">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>_xlfn.ISFORMULA(C254)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A264:A275">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A265">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
